--- a/docs/StructureDefinition-Platform.xlsx
+++ b/docs/StructureDefinition-Platform.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/Platform</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/Platform</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T14:10:57-04:00</t>
+    <t>2023-04-28T18:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.cqdg.ca/StructureDefinition/SequencingExperimentExtension</t>
+    <t>https://fhir.cqdg.ca/StructureDefinition/SequencingExperimentExtension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/docs/StructureDefinition-Platform.xlsx
+++ b/docs/StructureDefinition-Platform.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T18:08:06+00:00</t>
+    <t>2023-05-01T14:10:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>7</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -3881,7 +3881,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>80</v>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-Platform.xlsx
+++ b/docs/StructureDefinition-Platform.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$41</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T14:10:01+00:00</t>
+    <t>2023-05-01T15:10:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,9 +282,6 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>RunName</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>Extension.extension:RunName.id</t>
@@ -616,6 +619,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -952,7 +970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>79</v>
       </c>
@@ -1158,7 +1176,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>86</v>
       </c>
@@ -1171,7 +1189,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>76</v>
@@ -1186,13 +1204,13 @@
         <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1231,19 +1249,19 @@
         <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1255,34 +1273,34 @@
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>74</v>
@@ -1291,13 +1309,13 @@
         <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1348,7 +1366,7 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -1360,13 +1378,13 @@
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>97</v>
       </c>
@@ -1469,7 +1487,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>99</v>
       </c>
@@ -1497,7 +1515,7 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>102</v>
@@ -1544,19 +1562,19 @@
         <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AD7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1568,13 +1586,13 @@
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>105</v>
       </c>
@@ -1619,7 +1637,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>74</v>
@@ -1679,7 +1697,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>113</v>
       </c>
@@ -1782,7 +1800,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>120</v>
       </c>
@@ -1797,13 +1815,13 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>74</v>
@@ -1812,13 +1830,13 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1869,7 +1887,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -1881,13 +1899,13 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>122</v>
       </c>
@@ -1990,7 +2008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>123</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>102</v>
@@ -2065,19 +2083,19 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC12" t="s" s="2">
+      <c r="AD12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE12" t="s" s="2">
+      <c r="AF12" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2089,13 +2107,13 @@
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>124</v>
       </c>
@@ -2200,7 +2218,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>125</v>
       </c>
@@ -2303,7 +2321,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>126</v>
       </c>
@@ -2318,13 +2336,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>74</v>
@@ -2333,13 +2351,13 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2390,7 +2408,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2402,13 +2420,13 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>128</v>
       </c>
@@ -2511,7 +2529,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>129</v>
       </c>
@@ -2539,7 +2557,7 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>102</v>
@@ -2586,19 +2604,19 @@
         <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC17" t="s" s="2">
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -2610,13 +2628,13 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>130</v>
       </c>
@@ -2721,7 +2739,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>131</v>
       </c>
@@ -2824,7 +2842,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>132</v>
       </c>
@@ -2839,7 +2857,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>80</v>
@@ -2854,13 +2872,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2911,7 +2929,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -2923,13 +2941,13 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>134</v>
       </c>
@@ -3032,7 +3050,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>135</v>
       </c>
@@ -3060,7 +3078,7 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>102</v>
@@ -3107,19 +3125,19 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC22" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC22" t="s" s="2">
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3131,13 +3149,13 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>136</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>137</v>
       </c>
@@ -3345,7 +3363,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>138</v>
       </c>
@@ -3366,7 +3384,7 @@
         <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>74</v>
@@ -3375,13 +3393,13 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3432,7 +3450,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -3444,13 +3462,13 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>139</v>
       </c>
@@ -3553,7 +3571,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>140</v>
       </c>
@@ -3581,7 +3599,7 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>102</v>
@@ -3628,19 +3646,19 @@
         <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -3652,13 +3670,13 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>141</v>
       </c>
@@ -3763,7 +3781,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>142</v>
       </c>
@@ -3866,7 +3884,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>143</v>
       </c>
@@ -3887,7 +3905,7 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>74</v>
@@ -3896,13 +3914,13 @@
         <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -3953,7 +3971,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -3965,13 +3983,13 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>145</v>
       </c>
@@ -4074,7 +4092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>146</v>
       </c>
@@ -4102,7 +4120,7 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>102</v>
@@ -4149,19 +4167,19 @@
         <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC32" t="s" s="2">
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -4173,13 +4191,13 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>147</v>
       </c>
@@ -4284,7 +4302,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>148</v>
       </c>
@@ -4387,7 +4405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>149</v>
       </c>
@@ -4408,7 +4426,7 @@
         <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>74</v>
@@ -4417,13 +4435,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4474,7 +4492,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -4486,13 +4504,13 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>151</v>
       </c>
@@ -4595,7 +4613,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>152</v>
       </c>
@@ -4623,7 +4641,7 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>102</v>
@@ -4670,19 +4688,19 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AC37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC37" t="s" s="2">
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -4694,13 +4712,13 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>153</v>
       </c>
@@ -4805,7 +4823,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>154</v>
       </c>
@@ -4908,7 +4926,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>111</v>
       </c>
@@ -5013,7 +5031,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>118</v>
       </c>
@@ -5117,6 +5135,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK41">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI40">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>